--- a/CostCenter_AccCode.xlsx
+++ b/CostCenter_AccCode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abc\Documents\Thien_Admin_SSET_Huong\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v12490\Documents\Thien_git\RMIT_Admin_Workday_purchase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B93C888-FCED-43E0-AFC9-89D60041B8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A23FCFD-D7DF-46F0-A562-2D06C4C65A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5136" yWindow="3336" windowWidth="17280" windowHeight="9024" xr2:uid="{90217116-D870-4C33-94D7-7F495E903659}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{90217116-D870-4C33-94D7-7F495E903659}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,17 +132,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFD1D1D1"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFD1D1D1"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFD1D1D1"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFD1D1D1"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -155,9 +155,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,71 +470,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A821A5BA-6636-4624-AA8B-E658A6BF11B2}">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="27.21875" customWidth="1"/>
-    <col min="6" max="6" width="53.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
@@ -544,7 +543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -556,7 +555,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00 RMIT Classification: Trusted&amp;1#_x000D_</oddHeader>
+    <oddHeader>&amp;C&amp;"Calibri"&amp;12&amp;KEEDC00RMIT Classification: Trusted&amp;1#_x000D_&amp;"Calibri"&amp;11&amp;K000000</oddHeader>
   </headerFooter>
 </worksheet>
 </file>